--- a/xl_hello/test.xlsx
+++ b/xl_hello/test.xlsx
@@ -7,7 +7,8 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Test" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tests" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -352,11 +353,36 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A10:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
-          <t>Hello, world!</t>
+          <t>World</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Hello</t>
         </is>
       </c>
     </row>

--- a/xl_hello/test.xlsx
+++ b/xl_hello/test.xlsx
@@ -1,35 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henrique Aguiar\Desktop\Canoe_Git\xl_hello\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79D9FCD-2914-40EE-8EC2-29C31EE8D8FD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-19310" yWindow="3330" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Tests" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Tests" sheetId="2" r:id="rId2"/>
+    <sheet name="Row Iteration" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>World</t>
+  </si>
+  <si>
+    <t>Hello</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -45,15 +61,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -341,52 +366,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A10:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>World</t>
-        </is>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Hello</t>
-        </is>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/xl_hello/test.xlsx
+++ b/xl_hello/test.xlsx
@@ -1,54 +1,68 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henrique Aguiar\Desktop\Canoe_Git\xl_hello\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79D9FCD-2914-40EE-8EC2-29C31EE8D8FD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="3330" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="10560" windowWidth="19420" xWindow="-19310" yWindow="3330"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
-    <sheet name="Tests" sheetId="2" r:id="rId2"/>
-    <sheet name="Row Iteration" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tests" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Row Iteration" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>World</t>
-  </si>
-  <si>
-    <t>Hello</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <b val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
+  <fills count="6">
+    <fill>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="FFFFFF99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="00FFFF99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="00FFFF99"/>
+        <bgColor rgb="00FFFF99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF99"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -61,24 +75,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="5">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -366,50 +375,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A10:A11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>Hello, world!</t>
+        </is>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>1</v>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Hello</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/xl_hello/test.xlsx
+++ b/xl_hello/test.xlsx
@@ -2,23 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="10560" windowWidth="19420" xWindow="-19310" yWindow="3330"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Tests" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Row Iteration" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Test" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="New" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -26,43 +27,13 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <b val="1"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor rgb="FFFFFF99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor rgb="00FFFF99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor rgb="00FFFF99"/>
-        <bgColor rgb="00FFFF99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF99"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -77,15 +48,11 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
@@ -398,32 +365,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="4" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Hello, world!</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>World</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Hello</t>
         </is>
       </c>
     </row>
@@ -441,11 +394,19 @@
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Hello, world!</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/xl_hello/test.xlsx
+++ b/xl_hello/test.xlsx
@@ -18,7 +18,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt formatCode="&quot;$&quot;#,##0.00" numFmtId="164"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -48,8 +50,9 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -365,7 +368,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -378,6 +381,14 @@
         <is>
           <t>Hello, world!</t>
         </is>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" s="1" t="n">
+        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/xl_hello/test.xlsx
+++ b/xl_hello/test.xlsx
@@ -18,8 +18,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt formatCode="&quot;$&quot;#,##0.00" numFmtId="164"/>
+    <numFmt formatCode="0.00 &quot;B&quot;" numFmtId="165"/>
+    <numFmt formatCode="#0.00,,, &quot;B&quot;" numFmtId="166"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -50,9 +52,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -350,14 +357,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n">
+        <v>1000000000</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
@@ -368,7 +386,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -384,6 +402,11 @@
       </c>
       <c r="B1" s="1" t="n">
         <v>100</v>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>right</t>
+        </is>
       </c>
     </row>
     <row r="2">
